--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_12_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_12_genetic_schedule.xlsx
@@ -520,42 +520,138 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>CS 427 - Climate Science
+3D
+Room 267</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
           <t>BI 301 - Biology
 2D
 Room 157</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-    </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>EN 315 - Engineering Drawing
+2B
+Room 143</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>SO 213 - Sociology
+2E
+Room 179</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>AT 413 - Advanced Thermodynamics
 3B
@@ -563,102 +659,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>SO 213 - Sociology
-2E
-Room 179</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>CS 427 - Climate Science
-3D
-Room 267</t>
-        </is>
-      </c>
+      <c r="B17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -674,6 +681,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -752,11 +760,11 @@
   <mergeCells count="7">
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
